--- a/data/trans_orig/P14C34-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P14C34-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{CD9B1030-6859-4B33-A28B-D8F5FBE61E82}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{EF021408-5569-4E40-8C7B-4D81ABCD8D3D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{E0EE3C46-730B-4612-A059-1ED3E2957F2F}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{F45F0DAD-014D-4BA2-8452-84E07A879611}"/>
   </bookViews>
   <sheets>
     <sheet name="2015" sheetId="2" r:id="rId1"/>
@@ -609,7 +609,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AEA6BEE3-0012-4F7C-9152-44333A74551E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{24265AEC-9B1B-4EBC-B850-6FB378F823CB}">
   <dimension ref="A1:Q20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">

--- a/data/trans_orig/P14C34-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P14C34-Estudios-trans_orig.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{EF021408-5569-4E40-8C7B-4D81ABCD8D3D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{59D72FED-293C-4F36-8ED2-611BCB689816}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{F45F0DAD-014D-4BA2-8452-84E07A879611}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{EE64B446-681E-41AE-B462-D3AF8A524D4A}"/>
   </bookViews>
   <sheets>
-    <sheet name="2015" sheetId="2" r:id="rId1"/>
+    <sheet name="2016" sheetId="2" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +38,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="54">
   <si>
-    <t>Población según el tiempo de diagnóstico del trastornos de próstata en 2015 (Tasa respuesta: 1,72%)</t>
+    <t>Población según el tiempo de diagnóstico del trastornos de próstata en 2016 (Tasa respuesta: 1,72%)</t>
   </si>
   <si>
     <t>Hombre</t>
@@ -74,10 +74,10 @@
     <t>59,65%</t>
   </si>
   <si>
-    <t>47,22%</t>
-  </si>
-  <si>
-    <t>71,14%</t>
+    <t>46,91%</t>
+  </si>
+  <si>
+    <t>71,16%</t>
   </si>
   <si>
     <t>—%</t>
@@ -89,10 +89,10 @@
     <t>31,12%</t>
   </si>
   <si>
-    <t>20,75%</t>
-  </si>
-  <si>
-    <t>43,97%</t>
+    <t>20,77%</t>
+  </si>
+  <si>
+    <t>43,49%</t>
   </si>
   <si>
     <t>Ultimos 12 meses</t>
@@ -101,10 +101,10 @@
     <t>9,23%</t>
   </si>
   <si>
-    <t>3,23%</t>
-  </si>
-  <si>
-    <t>18,55%</t>
+    <t>3,39%</t>
+  </si>
+  <si>
+    <t>17,67%</t>
   </si>
   <si>
     <t>100%</t>
@@ -116,28 +116,28 @@
     <t>54,7%</t>
   </si>
   <si>
-    <t>37,9%</t>
-  </si>
-  <si>
-    <t>70,06%</t>
+    <t>37,74%</t>
+  </si>
+  <si>
+    <t>70,49%</t>
   </si>
   <si>
     <t>29,79%</t>
   </si>
   <si>
-    <t>16,19%</t>
-  </si>
-  <si>
-    <t>45,81%</t>
+    <t>17,2%</t>
+  </si>
+  <si>
+    <t>45,24%</t>
   </si>
   <si>
     <t>15,51%</t>
   </si>
   <si>
-    <t>5,39%</t>
-  </si>
-  <si>
-    <t>30,77%</t>
+    <t>6,6%</t>
+  </si>
+  <si>
+    <t>29,82%</t>
   </si>
   <si>
     <t>Universitarios</t>
@@ -146,19 +146,19 @@
     <t>43,52%</t>
   </si>
   <si>
-    <t>10,03%</t>
-  </si>
-  <si>
-    <t>85,14%</t>
+    <t>10,14%</t>
+  </si>
+  <si>
+    <t>86,83%</t>
   </si>
   <si>
     <t>41,52%</t>
   </si>
   <si>
-    <t>10,86%</t>
-  </si>
-  <si>
-    <t>86,8%</t>
+    <t>9,43%</t>
+  </si>
+  <si>
+    <t>80,47%</t>
   </si>
   <si>
     <t>14,97%</t>
@@ -167,34 +167,34 @@
     <t>0,0%</t>
   </si>
   <si>
-    <t>64,01%</t>
+    <t>62,0%</t>
   </si>
   <si>
     <t>56,71%</t>
   </si>
   <si>
-    <t>47,66%</t>
-  </si>
-  <si>
-    <t>65,62%</t>
+    <t>47,43%</t>
+  </si>
+  <si>
+    <t>64,9%</t>
   </si>
   <si>
     <t>31,39%</t>
   </si>
   <si>
-    <t>23,81%</t>
-  </si>
-  <si>
-    <t>40,44%</t>
+    <t>23,98%</t>
+  </si>
+  <si>
+    <t>40,53%</t>
   </si>
   <si>
     <t>11,89%</t>
   </si>
   <si>
-    <t>6,48%</t>
-  </si>
-  <si>
-    <t>19,06%</t>
+    <t>6,68%</t>
+  </si>
+  <si>
+    <t>18,91%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -609,7 +609,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{24265AEC-9B1B-4EBC-B850-6FB378F823CB}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B8D87DC2-6A80-40D7-860D-D543F5F052E9}">
   <dimension ref="A1:Q20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
